--- a/app/tests/assets/new_products.xlsx
+++ b/app/tests/assets/new_products.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="450" yWindow="420" windowWidth="15000" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Categoria</t>
   </si>
@@ -78,36 +77,28 @@
   </si>
   <si>
     <t>algum valor</t>
+  </si>
+  <si>
+    <t>ferramentas_especificas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -135,7 +126,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF599E19"/>
@@ -149,6 +146,7 @@
       <bottom style="thin">
         <color rgb="FF599E19"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -163,6 +161,7 @@
       <bottom style="thin">
         <color rgb="FF80720B"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -177,36 +176,30 @@
       <bottom style="thin">
         <color rgb="FFAAB3A1"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -496,27 +489,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -545,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>8800003</v>
       </c>
@@ -564,7 +554,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>8800004</v>
       </c>
@@ -587,7 +577,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>8800005</v>
       </c>
@@ -606,7 +596,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8800001</v>
       </c>
@@ -628,17 +618,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>